--- a/employees_upload_wrong.xlsx
+++ b/employees_upload_wrong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C3F0E-D47C-4F56-BCB9-95E72C749E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B0AB65-E974-4BCE-8835-0C0C6D36B8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17952" yWindow="3624" windowWidth="23040" windowHeight="12132" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12132" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -149,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,7 +157,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -495,7 +494,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -523,7 +522,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -538,7 +537,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -553,7 +552,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -567,7 +566,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -582,7 +581,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -593,26 +592,15 @@
       <c r="D6">
         <v>80000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>80000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -627,7 +615,7 @@
       <c r="D8">
         <v>66666</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>66</v>
       </c>
     </row>
